--- a/SchedulingData/dynamic10/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>266.6</v>
+        <v>217.6</v>
       </c>
       <c r="D2" t="n">
-        <v>330.66</v>
+        <v>270.82</v>
       </c>
       <c r="E2" t="n">
-        <v>8.084</v>
+        <v>11.568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221.06</v>
+        <v>235.9</v>
       </c>
       <c r="D3" t="n">
-        <v>277</v>
+        <v>270.52</v>
       </c>
       <c r="E3" t="n">
-        <v>12.42</v>
+        <v>13.568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.18</v>
+        <v>270.52</v>
       </c>
       <c r="D4" t="n">
-        <v>300.94</v>
+        <v>324.9</v>
       </c>
       <c r="E4" t="n">
-        <v>13.016</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>232.38</v>
+        <v>255.5</v>
       </c>
       <c r="D5" t="n">
-        <v>282.58</v>
+        <v>293.2</v>
       </c>
       <c r="E5" t="n">
-        <v>13.392</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300.94</v>
+        <v>324.9</v>
       </c>
       <c r="D6" t="n">
-        <v>369.5</v>
+        <v>362.3</v>
       </c>
       <c r="E6" t="n">
-        <v>10.26</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>330.66</v>
+        <v>252.18</v>
       </c>
       <c r="D7" t="n">
-        <v>374.94</v>
+        <v>303.14</v>
       </c>
       <c r="E7" t="n">
-        <v>5.276</v>
+        <v>11.816</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>229.82</v>
+        <v>201.48</v>
       </c>
       <c r="D8" t="n">
-        <v>264.44</v>
+        <v>243.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15.656</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>369.5</v>
+        <v>242.14</v>
       </c>
       <c r="D9" t="n">
-        <v>421.5</v>
+        <v>310.94</v>
       </c>
       <c r="E9" t="n">
-        <v>8.18</v>
+        <v>14.016</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>282.58</v>
+        <v>310.94</v>
       </c>
       <c r="D10" t="n">
-        <v>355.4</v>
+        <v>365</v>
       </c>
       <c r="E10" t="n">
-        <v>10.2</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>264.44</v>
+        <v>270.82</v>
       </c>
       <c r="D11" t="n">
-        <v>316.94</v>
+        <v>319.78</v>
       </c>
       <c r="E11" t="n">
-        <v>13.496</v>
+        <v>8.292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>224.32</v>
+        <v>243.6</v>
       </c>
       <c r="D12" t="n">
-        <v>275.16</v>
+        <v>284.28</v>
       </c>
       <c r="E12" t="n">
-        <v>14.124</v>
+        <v>14.192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>316.94</v>
+        <v>303.14</v>
       </c>
       <c r="D13" t="n">
-        <v>370.44</v>
+        <v>385.96</v>
       </c>
       <c r="E13" t="n">
-        <v>10.256</v>
+        <v>8.624000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>277</v>
+        <v>385.96</v>
       </c>
       <c r="D14" t="n">
-        <v>334.12</v>
+        <v>428.86</v>
       </c>
       <c r="E14" t="n">
-        <v>9.827999999999999</v>
+        <v>6.464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>275.16</v>
+        <v>428.86</v>
       </c>
       <c r="D15" t="n">
-        <v>335.12</v>
+        <v>480.4</v>
       </c>
       <c r="E15" t="n">
-        <v>11.748</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="16">
@@ -732,112 +732,112 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>334.12</v>
+        <v>293.2</v>
       </c>
       <c r="D16" t="n">
-        <v>394.52</v>
+        <v>353.36</v>
       </c>
       <c r="E16" t="n">
-        <v>7.408</v>
+        <v>10.884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>421.5</v>
+        <v>362.3</v>
       </c>
       <c r="D17" t="n">
-        <v>467.08</v>
+        <v>415.86</v>
       </c>
       <c r="E17" t="n">
-        <v>5.732</v>
+        <v>5.884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>394.52</v>
+        <v>415.86</v>
       </c>
       <c r="D18" t="n">
-        <v>456.42</v>
+        <v>459.1</v>
       </c>
       <c r="E18" t="n">
-        <v>5.288</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>374.94</v>
+        <v>353.36</v>
       </c>
       <c r="D19" t="n">
-        <v>429.36</v>
+        <v>402.16</v>
       </c>
       <c r="E19" t="n">
-        <v>2.944</v>
+        <v>7.644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>335.12</v>
+        <v>284.28</v>
       </c>
       <c r="D20" t="n">
-        <v>409.12</v>
+        <v>323.66</v>
       </c>
       <c r="E20" t="n">
-        <v>8.448</v>
+        <v>11.384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>467.08</v>
+        <v>402.16</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1799999999999</v>
+        <v>444.06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.432</v>
+        <v>5.564</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>370.44</v>
+        <v>323.66</v>
       </c>
       <c r="D22" t="n">
-        <v>413.26</v>
+        <v>390.12</v>
       </c>
       <c r="E22" t="n">
-        <v>7.604</v>
+        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>413.26</v>
+        <v>444.06</v>
       </c>
       <c r="D23" t="n">
-        <v>467.54</v>
+        <v>483.68</v>
       </c>
       <c r="E23" t="n">
-        <v>4.796</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>409.12</v>
+        <v>319.78</v>
       </c>
       <c r="D24" t="n">
-        <v>447.46</v>
+        <v>377.38</v>
       </c>
       <c r="E24" t="n">
-        <v>5.744</v>
+        <v>5.652</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>355.4</v>
+        <v>365</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9</v>
+        <v>417.46</v>
       </c>
       <c r="E25" t="n">
-        <v>7.56</v>
+        <v>7.604</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>447.46</v>
+        <v>417.46</v>
       </c>
       <c r="D26" t="n">
-        <v>509</v>
+        <v>471.56</v>
       </c>
       <c r="E26" t="n">
-        <v>2.72</v>
+        <v>4.304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>456.42</v>
+        <v>377.38</v>
       </c>
       <c r="D27" t="n">
-        <v>512.78</v>
+        <v>432.48</v>
       </c>
       <c r="E27" t="n">
-        <v>2.792</v>
+        <v>3.232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pond19</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>390.12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>427.94</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.696</v>
       </c>
     </row>
   </sheetData>
